--- a/Import Data/88x90.xlsx
+++ b/Import Data/88x90.xlsx
@@ -1,22 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\dbf-propulsions\Import Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF88F4EF-22DF-4261-932A-6EAAC07A0DBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="84" windowWidth="10500" windowHeight="5856"/>
+    <workbookView xWindow="21990" yWindow="5535" windowWidth="14130" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="46">
   <si>
     <t>8.8x9.0</t>
   </si>
@@ -155,15 +174,12 @@
   <si>
     <t>(Lbf)</t>
   </si>
-  <si>
-    <t>1.22-NaN</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +217,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -247,7 +271,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -279,9 +303,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,6 +355,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -488,16 +548,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I824"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="B784" sqref="B784"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +568,7 @@
         <v>41998</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -537,12 +597,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -553,7 +613,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -576,7 +636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -599,7 +659,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -607,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -624,7 +684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -638,7 +698,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -664,7 +724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
@@ -684,7 +744,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>0</v>
       </c>
@@ -710,7 +770,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>0.4</v>
       </c>
@@ -736,7 +796,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>0.8</v>
       </c>
@@ -762,7 +822,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.1000000000000001</v>
       </c>
@@ -788,7 +848,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.5</v>
       </c>
@@ -814,7 +874,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1.9</v>
       </c>
@@ -840,7 +900,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.2999999999999998</v>
       </c>
@@ -866,7 +926,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2.6</v>
       </c>
@@ -892,7 +952,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -918,7 +978,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.4</v>
       </c>
@@ -944,7 +1004,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.8</v>
       </c>
@@ -970,7 +1030,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4.2</v>
       </c>
@@ -996,7 +1056,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>4.5</v>
       </c>
@@ -1022,7 +1082,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>4.9000000000000004</v>
       </c>
@@ -1048,7 +1108,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5.3</v>
       </c>
@@ -1074,7 +1134,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5.7</v>
       </c>
@@ -1100,7 +1160,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1126,7 +1186,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.4</v>
       </c>
@@ -1152,7 +1212,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.8</v>
       </c>
@@ -1178,7 +1238,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>7.2</v>
       </c>
@@ -1204,7 +1264,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>7.5</v>
       </c>
@@ -1230,7 +1290,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7.9</v>
       </c>
@@ -1256,7 +1316,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>8.3000000000000007</v>
       </c>
@@ -1282,7 +1342,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>8.6999999999999993</v>
       </c>
@@ -1308,7 +1368,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>9.1</v>
       </c>
@@ -1334,7 +1394,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>9.4</v>
       </c>
@@ -1360,7 +1420,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>9.8000000000000007</v>
       </c>
@@ -1386,7 +1446,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>10.199999999999999</v>
       </c>
@@ -1412,7 +1472,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10.6</v>
       </c>
@@ -1438,7 +1498,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>10.9</v>
       </c>
@@ -1464,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1538,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>26</v>
       </c>
@@ -1504,7 +1564,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>40</v>
       </c>
@@ -1524,7 +1584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>0</v>
       </c>
@@ -1550,7 +1610,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>0.8</v>
       </c>
@@ -1576,7 +1636,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.5</v>
       </c>
@@ -1602,7 +1662,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2.2999999999999998</v>
       </c>
@@ -1628,7 +1688,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -1654,7 +1714,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3.8</v>
       </c>
@@ -1680,7 +1740,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.5</v>
       </c>
@@ -1706,7 +1766,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.3</v>
       </c>
@@ -1732,7 +1792,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -1758,7 +1818,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:8">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6.8</v>
       </c>
@@ -1784,7 +1844,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:8">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7.5</v>
       </c>
@@ -1810,7 +1870,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8.3000000000000007</v>
       </c>
@@ -1836,7 +1896,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -1862,7 +1922,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>9.8000000000000007</v>
       </c>
@@ -1888,7 +1948,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>10.5</v>
       </c>
@@ -1914,7 +1974,7 @@
         <v>6.9000000000000006E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>11.3</v>
       </c>
@@ -1940,7 +2000,7 @@
         <v>6.8000000000000005E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>12</v>
       </c>
@@ -1966,7 +2026,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>12.8</v>
       </c>
@@ -1992,7 +2052,7 @@
         <v>6.4000000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>13.6</v>
       </c>
@@ -2018,7 +2078,7 @@
         <v>6.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>14.3</v>
       </c>
@@ -2044,7 +2104,7 @@
         <v>5.6000000000000001E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>15.1</v>
       </c>
@@ -2070,7 +2130,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>15.8</v>
       </c>
@@ -2096,7 +2156,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:8">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>16.600000000000001</v>
       </c>
@@ -2122,7 +2182,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="78" spans="1:8">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>17.3</v>
       </c>
@@ -2148,7 +2208,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:8">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>18.100000000000001</v>
       </c>
@@ -2174,7 +2234,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:8">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>18.8</v>
       </c>
@@ -2200,7 +2260,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>19.600000000000001</v>
       </c>
@@ -2226,7 +2286,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>20.3</v>
       </c>
@@ -2252,7 +2312,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>21.1</v>
       </c>
@@ -2278,7 +2338,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:8">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>21.8</v>
       </c>
@@ -2304,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>30</v>
       </c>
@@ -2318,7 +2378,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="90" spans="1:8">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -2344,7 +2404,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="1:8">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>40</v>
       </c>
@@ -2364,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="92" spans="1:8">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>0</v>
       </c>
@@ -2390,7 +2450,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="93" spans="1:8">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1.1000000000000001</v>
       </c>
@@ -2416,7 +2476,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="94" spans="1:8">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2.2999999999999998</v>
       </c>
@@ -2442,7 +2502,7 @@
         <v>0.157</v>
       </c>
     </row>
-    <row r="95" spans="1:8">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3.4</v>
       </c>
@@ -2468,7 +2528,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="96" spans="1:8">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4.5</v>
       </c>
@@ -2494,7 +2554,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="97" spans="1:8">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.6</v>
       </c>
@@ -2520,7 +2580,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="98" spans="1:8">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6.8</v>
       </c>
@@ -2546,7 +2606,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="99" spans="1:8">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>7.9</v>
       </c>
@@ -2572,7 +2632,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="100" spans="1:8">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>9</v>
       </c>
@@ -2598,7 +2658,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="101" spans="1:8">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>10.199999999999999</v>
       </c>
@@ -2624,7 +2684,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="102" spans="1:8">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>11.3</v>
       </c>
@@ -2650,7 +2710,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="103" spans="1:8">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>12.4</v>
       </c>
@@ -2676,7 +2736,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="104" spans="1:8">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>13.5</v>
       </c>
@@ -2702,7 +2762,7 @@
         <v>0.159</v>
       </c>
     </row>
-    <row r="105" spans="1:8">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>14.7</v>
       </c>
@@ -2728,7 +2788,7 @@
         <v>0.158</v>
       </c>
     </row>
-    <row r="106" spans="1:8">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>15.8</v>
       </c>
@@ -2754,7 +2814,7 @@
         <v>0.156</v>
       </c>
     </row>
-    <row r="107" spans="1:8">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>16.899999999999999</v>
       </c>
@@ -2780,7 +2840,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="108" spans="1:8">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>18.100000000000001</v>
       </c>
@@ -2806,7 +2866,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>19.2</v>
       </c>
@@ -2832,7 +2892,7 @@
         <v>0.14399999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:8">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>20.3</v>
       </c>
@@ -2858,7 +2918,7 @@
         <v>0.13600000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:8">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>21.4</v>
       </c>
@@ -2884,7 +2944,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="112" spans="1:8">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22.6</v>
       </c>
@@ -2910,7 +2970,7 @@
         <v>0.114</v>
       </c>
     </row>
-    <row r="113" spans="1:8">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>23.7</v>
       </c>
@@ -2936,7 +2996,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>24.8</v>
       </c>
@@ -2962,7 +3022,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="115" spans="1:8">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>26</v>
       </c>
@@ -2988,7 +3048,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:8">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>27.1</v>
       </c>
@@ -3014,7 +3074,7 @@
         <v>6.6000000000000003E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:8">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>28.2</v>
       </c>
@@ -3040,7 +3100,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:8">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>29.3</v>
       </c>
@@ -3066,7 +3126,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="119" spans="1:8">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>30.5</v>
       </c>
@@ -3092,7 +3152,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>31.6</v>
       </c>
@@ -3118,7 +3178,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:8">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>32.700000000000003</v>
       </c>
@@ -3144,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>30</v>
       </c>
@@ -3158,7 +3218,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="127" spans="1:8">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>26</v>
       </c>
@@ -3184,7 +3244,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="128" spans="1:8">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>40</v>
       </c>
@@ -3204,7 +3264,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:8">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>0</v>
       </c>
@@ -3230,7 +3290,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="130" spans="1:8">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1.5</v>
       </c>
@@ -3256,7 +3316,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:8">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -3282,7 +3342,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="132" spans="1:8">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>4.5</v>
       </c>
@@ -3308,7 +3368,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="133" spans="1:8">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3334,7 +3394,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="134" spans="1:8">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>7.5</v>
       </c>
@@ -3360,7 +3420,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="135" spans="1:8">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -3386,7 +3446,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="136" spans="1:8">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>10.5</v>
       </c>
@@ -3412,7 +3472,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="137" spans="1:8">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>12</v>
       </c>
@@ -3438,7 +3498,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="138" spans="1:8">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>13.5</v>
       </c>
@@ -3464,7 +3524,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="139" spans="1:8">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>15</v>
       </c>
@@ -3490,7 +3550,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>16.600000000000001</v>
       </c>
@@ -3516,7 +3576,7 @@
         <v>0.28299999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:8">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18.100000000000001</v>
       </c>
@@ -3542,7 +3602,7 @@
         <v>0.28199999999999997</v>
       </c>
     </row>
-    <row r="142" spans="1:8">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19.600000000000001</v>
       </c>
@@ -3568,7 +3628,7 @@
         <v>0.28100000000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:8">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>21.1</v>
       </c>
@@ -3594,7 +3654,7 @@
         <v>0.27800000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:8">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>22.6</v>
       </c>
@@ -3620,7 +3680,7 @@
         <v>0.27300000000000002</v>
       </c>
     </row>
-    <row r="145" spans="1:8">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>24.1</v>
       </c>
@@ -3646,7 +3706,7 @@
         <v>0.26600000000000001</v>
       </c>
     </row>
-    <row r="146" spans="1:8">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>25.6</v>
       </c>
@@ -3672,7 +3732,7 @@
         <v>0.25600000000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:8">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>27.1</v>
       </c>
@@ -3698,7 +3758,7 @@
         <v>0.24299999999999999</v>
       </c>
     </row>
-    <row r="148" spans="1:8">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>28.6</v>
       </c>
@@ -3724,7 +3784,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:8">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>30.1</v>
       </c>
@@ -3750,7 +3810,7 @@
         <v>0.20399999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:8">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>31.6</v>
       </c>
@@ -3776,7 +3836,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="151" spans="1:8">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>33.1</v>
       </c>
@@ -3802,7 +3862,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="152" spans="1:8">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>34.6</v>
       </c>
@@ -3828,7 +3888,7 @@
         <v>0.13900000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:8">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>36.1</v>
       </c>
@@ -3854,7 +3914,7 @@
         <v>0.11700000000000001</v>
       </c>
     </row>
-    <row r="154" spans="1:8">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>37.6</v>
       </c>
@@ -3880,7 +3940,7 @@
         <v>9.4E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:8">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>39.1</v>
       </c>
@@ -3906,7 +3966,7 @@
         <v>7.0999999999999994E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:8">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>40.6</v>
       </c>
@@ -3932,7 +3992,7 @@
         <v>4.7E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:8">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>42.1</v>
       </c>
@@ -3958,7 +4018,7 @@
         <v>2.4E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:8">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>43.6</v>
       </c>
@@ -3984,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>30</v>
       </c>
@@ -3998,7 +4058,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="164" spans="1:8">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>26</v>
       </c>
@@ -4024,7 +4084,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="165" spans="1:8">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>40</v>
       </c>
@@ -4044,7 +4104,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:8">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>0</v>
       </c>
@@ -4070,7 +4130,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="167" spans="1:8">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1.9</v>
       </c>
@@ -4096,7 +4156,7 @@
         <v>0.436</v>
       </c>
     </row>
-    <row r="168" spans="1:8">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3.8</v>
       </c>
@@ -4122,7 +4182,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="169" spans="1:8">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>5.6</v>
       </c>
@@ -4148,7 +4208,7 @@
         <v>0.438</v>
       </c>
     </row>
-    <row r="170" spans="1:8">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7.5</v>
       </c>
@@ -4174,7 +4234,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="171" spans="1:8">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>9.4</v>
       </c>
@@ -4200,7 +4260,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="172" spans="1:8">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11.3</v>
       </c>
@@ -4226,7 +4286,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="173" spans="1:8">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>13.2</v>
       </c>
@@ -4252,7 +4312,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="174" spans="1:8">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>15</v>
       </c>
@@ -4278,7 +4338,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="175" spans="1:8">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>16.899999999999999</v>
       </c>
@@ -4304,7 +4364,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="176" spans="1:8">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>18.8</v>
       </c>
@@ -4330,7 +4390,7 @@
         <v>0.443</v>
       </c>
     </row>
-    <row r="177" spans="1:8">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>20.7</v>
       </c>
@@ -4356,7 +4416,7 @@
         <v>0.442</v>
       </c>
     </row>
-    <row r="178" spans="1:8">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>22.6</v>
       </c>
@@ -4382,7 +4442,7 @@
         <v>0.441</v>
       </c>
     </row>
-    <row r="179" spans="1:8">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>24.4</v>
       </c>
@@ -4408,7 +4468,7 @@
         <v>0.439</v>
       </c>
     </row>
-    <row r="180" spans="1:8">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>26.3</v>
       </c>
@@ -4434,7 +4494,7 @@
         <v>0.435</v>
       </c>
     </row>
-    <row r="181" spans="1:8">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>28.2</v>
       </c>
@@ -4460,7 +4520,7 @@
         <v>0.42699999999999999</v>
       </c>
     </row>
-    <row r="182" spans="1:8">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>30.1</v>
       </c>
@@ -4486,7 +4546,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="183" spans="1:8">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>32</v>
       </c>
@@ -4512,7 +4572,7 @@
         <v>0.40100000000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:8">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>33.9</v>
       </c>
@@ -4538,7 +4598,7 @@
         <v>0.38100000000000001</v>
       </c>
     </row>
-    <row r="185" spans="1:8">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>35.700000000000003</v>
       </c>
@@ -4564,7 +4624,7 @@
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:8">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>37.6</v>
       </c>
@@ -4590,7 +4650,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="187" spans="1:8">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>39.5</v>
       </c>
@@ -4616,7 +4676,7 @@
         <v>0.28599999999999998</v>
       </c>
     </row>
-    <row r="188" spans="1:8">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>41.4</v>
       </c>
@@ -4642,7 +4702,7 @@
         <v>0.253</v>
       </c>
     </row>
-    <row r="189" spans="1:8">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>43.3</v>
       </c>
@@ -4668,7 +4728,7 @@
         <v>0.218</v>
       </c>
     </row>
-    <row r="190" spans="1:8">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>45.1</v>
       </c>
@@ -4694,7 +4754,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="191" spans="1:8">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>47</v>
       </c>
@@ -4720,7 +4780,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:8">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>48.9</v>
       </c>
@@ -4746,7 +4806,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="193" spans="1:8">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>50.8</v>
       </c>
@@ -4772,7 +4832,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:8">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>52.7</v>
       </c>
@@ -4798,7 +4858,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="195" spans="1:8">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>54.5</v>
       </c>
@@ -4824,7 +4884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>30</v>
       </c>
@@ -4838,7 +4898,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="201" spans="1:8">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>26</v>
       </c>
@@ -4864,7 +4924,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="202" spans="1:8">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>40</v>
       </c>
@@ -4884,7 +4944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="203" spans="1:8">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>0</v>
       </c>
@@ -4910,7 +4970,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2.2999999999999998</v>
       </c>
@@ -4936,7 +4996,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="205" spans="1:8">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>4.5</v>
       </c>
@@ -4962,7 +5022,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="206" spans="1:8">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>6.8</v>
       </c>
@@ -4988,7 +5048,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="207" spans="1:8">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>9</v>
       </c>
@@ -5014,7 +5074,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:8">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>11.3</v>
       </c>
@@ -5040,7 +5100,7 @@
         <v>0.63400000000000001</v>
       </c>
     </row>
-    <row r="209" spans="1:8">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13.5</v>
       </c>
@@ -5066,7 +5126,7 @@
         <v>0.63500000000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:8">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>15.8</v>
       </c>
@@ -5092,7 +5152,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:8">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>18.100000000000001</v>
       </c>
@@ -5118,7 +5178,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:8">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>20.3</v>
       </c>
@@ -5144,7 +5204,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="213" spans="1:8">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>22.6</v>
       </c>
@@ -5170,7 +5230,7 @@
         <v>0.63800000000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:8">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>24.8</v>
       </c>
@@ -5196,7 +5256,7 @@
         <v>0.63700000000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:8">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>27.1</v>
       </c>
@@ -5222,7 +5282,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:8">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>29.3</v>
       </c>
@@ -5248,7 +5308,7 @@
         <v>0.63300000000000001</v>
       </c>
     </row>
-    <row r="217" spans="1:8">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>31.6</v>
       </c>
@@ -5274,7 +5334,7 @@
         <v>0.627</v>
       </c>
     </row>
-    <row r="218" spans="1:8">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>33.9</v>
       </c>
@@ -5300,7 +5360,7 @@
         <v>0.61599999999999999</v>
       </c>
     </row>
-    <row r="219" spans="1:8">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>36.1</v>
       </c>
@@ -5326,7 +5386,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="220" spans="1:8">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>38.4</v>
       </c>
@@ -5352,7 +5412,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="221" spans="1:8">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>40.6</v>
       </c>
@@ -5378,7 +5438,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="222" spans="1:8">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>42.9</v>
       </c>
@@ -5404,7 +5464,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="223" spans="1:8">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>45.1</v>
       </c>
@@ -5430,7 +5490,7 @@
         <v>0.46200000000000002</v>
       </c>
     </row>
-    <row r="224" spans="1:8">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>47.4</v>
       </c>
@@ -5456,7 +5516,7 @@
         <v>0.41399999999999998</v>
       </c>
     </row>
-    <row r="225" spans="1:8">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>49.7</v>
       </c>
@@ -5482,7 +5542,7 @@
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:8">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>51.9</v>
       </c>
@@ -5508,7 +5568,7 @@
         <v>0.316</v>
       </c>
     </row>
-    <row r="227" spans="1:8">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>54.2</v>
       </c>
@@ -5534,7 +5594,7 @@
         <v>0.26500000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:8">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>56.4</v>
       </c>
@@ -5560,7 +5620,7 @@
         <v>0.214</v>
       </c>
     </row>
-    <row r="229" spans="1:8">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>58.7</v>
       </c>
@@ -5586,7 +5646,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="230" spans="1:8">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>60.9</v>
       </c>
@@ -5612,7 +5672,7 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="231" spans="1:8">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>63.2</v>
       </c>
@@ -5638,7 +5698,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="232" spans="1:8">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>65.5</v>
       </c>
@@ -5664,7 +5724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:8">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5678,7 +5738,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="238" spans="1:8">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>26</v>
       </c>
@@ -5704,7 +5764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="239" spans="1:8">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>40</v>
       </c>
@@ -5724,7 +5784,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="240" spans="1:8">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>0</v>
       </c>
@@ -5750,7 +5810,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="241" spans="1:8">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2.6</v>
       </c>
@@ -5776,7 +5836,7 @@
         <v>0.85499999999999998</v>
       </c>
     </row>
-    <row r="242" spans="1:8">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>5.3</v>
       </c>
@@ -5802,7 +5862,7 @@
         <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:8">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>7.9</v>
       </c>
@@ -5828,7 +5888,7 @@
         <v>0.85899999999999999</v>
       </c>
     </row>
-    <row r="244" spans="1:8">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>10.5</v>
       </c>
@@ -5854,7 +5914,7 @@
         <v>0.86099999999999999</v>
       </c>
     </row>
-    <row r="245" spans="1:8">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>13.2</v>
       </c>
@@ -5880,7 +5940,7 @@
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="246" spans="1:8">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>15.8</v>
       </c>
@@ -5906,7 +5966,7 @@
         <v>0.86499999999999999</v>
       </c>
     </row>
-    <row r="247" spans="1:8">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>18.399999999999999</v>
       </c>
@@ -5932,7 +5992,7 @@
         <v>0.86699999999999999</v>
       </c>
     </row>
-    <row r="248" spans="1:8">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>21.1</v>
       </c>
@@ -5958,7 +6018,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="249" spans="1:8">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>23.7</v>
       </c>
@@ -5984,7 +6044,7 @@
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="250" spans="1:8">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>26.3</v>
       </c>
@@ -6010,7 +6070,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:8">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>29</v>
       </c>
@@ -6036,7 +6096,7 @@
         <v>0.86799999999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:8">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>31.6</v>
       </c>
@@ -6062,7 +6122,7 @@
         <v>0.86599999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:8">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>34.200000000000003</v>
       </c>
@@ -6088,7 +6148,7 @@
         <v>0.86199999999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:8">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>36.9</v>
       </c>
@@ -6114,7 +6174,7 @@
         <v>0.85399999999999998</v>
       </c>
     </row>
-    <row r="255" spans="1:8">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>39.5</v>
       </c>
@@ -6140,7 +6200,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>42.1</v>
       </c>
@@ -6166,7 +6226,7 @@
         <v>0.81799999999999995</v>
       </c>
     </row>
-    <row r="257" spans="1:8">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>44.8</v>
       </c>
@@ -6192,7 +6252,7 @@
         <v>0.78900000000000003</v>
       </c>
     </row>
-    <row r="258" spans="1:8">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>47.4</v>
       </c>
@@ -6218,7 +6278,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="259" spans="1:8">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>50</v>
       </c>
@@ -6244,7 +6304,7 @@
         <v>0.69699999999999995</v>
       </c>
     </row>
-    <row r="260" spans="1:8">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>52.7</v>
       </c>
@@ -6270,7 +6330,7 @@
         <v>0.63200000000000001</v>
       </c>
     </row>
-    <row r="261" spans="1:8">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>55.3</v>
       </c>
@@ -6296,7 +6356,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="262" spans="1:8">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>57.9</v>
       </c>
@@ -6322,7 +6382,7 @@
         <v>0.499</v>
       </c>
     </row>
-    <row r="263" spans="1:8">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>60.6</v>
       </c>
@@ -6348,7 +6408,7 @@
         <v>0.43099999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:8">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>63.2</v>
       </c>
@@ -6374,7 +6434,7 @@
         <v>0.36199999999999999</v>
       </c>
     </row>
-    <row r="265" spans="1:8">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>65.8</v>
       </c>
@@ -6400,7 +6460,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:8">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>68.5</v>
       </c>
@@ -6426,7 +6486,7 @@
         <v>0.221</v>
       </c>
     </row>
-    <row r="267" spans="1:8">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>71.099999999999994</v>
       </c>
@@ -6452,7 +6512,7 @@
         <v>0.14799999999999999</v>
       </c>
     </row>
-    <row r="268" spans="1:8">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>73.7</v>
       </c>
@@ -6478,7 +6538,7 @@
         <v>7.3999999999999996E-2</v>
       </c>
     </row>
-    <row r="269" spans="1:8">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>76.400000000000006</v>
       </c>
@@ -6504,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:8">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>30</v>
       </c>
@@ -6518,7 +6578,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="275" spans="1:8">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>26</v>
       </c>
@@ -6544,7 +6604,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="276" spans="1:8">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>40</v>
       </c>
@@ -6564,7 +6624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:8">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>0</v>
       </c>
@@ -6590,7 +6650,7 @@
         <v>1.115</v>
       </c>
     </row>
-    <row r="278" spans="1:8">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>3</v>
       </c>
@@ -6616,7 +6676,7 @@
         <v>1.117</v>
       </c>
     </row>
-    <row r="279" spans="1:8">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>6</v>
       </c>
@@ -6642,7 +6702,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="280" spans="1:8">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>9</v>
       </c>
@@ -6668,7 +6728,7 @@
         <v>1.1220000000000001</v>
       </c>
     </row>
-    <row r="281" spans="1:8">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>12</v>
       </c>
@@ -6694,7 +6754,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="282" spans="1:8">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>15.1</v>
       </c>
@@ -6720,7 +6780,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="283" spans="1:8">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>18.100000000000001</v>
       </c>
@@ -6746,7 +6806,7 @@
         <v>1.1299999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:8">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>21.1</v>
       </c>
@@ -6772,7 +6832,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="285" spans="1:8">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>24.1</v>
       </c>
@@ -6798,7 +6858,7 @@
         <v>1.1339999999999999</v>
       </c>
     </row>
-    <row r="286" spans="1:8">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>27.1</v>
       </c>
@@ -6824,7 +6884,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="287" spans="1:8">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>30.1</v>
       </c>
@@ -6850,7 +6910,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="288" spans="1:8">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>33.1</v>
       </c>
@@ -6876,7 +6936,7 @@
         <v>1.135</v>
       </c>
     </row>
-    <row r="289" spans="1:8">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>36.1</v>
       </c>
@@ -6902,7 +6962,7 @@
         <v>1.1319999999999999</v>
       </c>
     </row>
-    <row r="290" spans="1:8">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>39.1</v>
       </c>
@@ -6928,7 +6988,7 @@
         <v>1.1279999999999999</v>
       </c>
     </row>
-    <row r="291" spans="1:8">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>42.1</v>
       </c>
@@ -6954,7 +7014,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="292" spans="1:8">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>45.2</v>
       </c>
@@ -6980,7 +7040,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="293" spans="1:8">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>48.2</v>
       </c>
@@ -7006,7 +7066,7 @@
         <v>1.0720000000000001</v>
       </c>
     </row>
-    <row r="294" spans="1:8">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>51.2</v>
       </c>
@@ -7032,7 +7092,7 @@
         <v>1.034</v>
       </c>
     </row>
-    <row r="295" spans="1:8">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>54.2</v>
       </c>
@@ -7058,7 +7118,7 @@
         <v>0.98399999999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:8">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>57.2</v>
       </c>
@@ -7084,7 +7144,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="297" spans="1:8">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>60.2</v>
       </c>
@@ -7110,7 +7170,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="298" spans="1:8">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>63.2</v>
       </c>
@@ -7136,7 +7196,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:8">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>66.2</v>
       </c>
@@ -7162,7 +7222,7 @@
         <v>0.65600000000000003</v>
       </c>
     </row>
-    <row r="300" spans="1:8">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>69.2</v>
       </c>
@@ -7188,7 +7248,7 @@
         <v>0.56599999999999995</v>
       </c>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>72.3</v>
       </c>
@@ -7214,7 +7274,7 @@
         <v>0.47599999999999998</v>
       </c>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>75.3</v>
       </c>
@@ -7240,7 +7300,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="303" spans="1:8">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>78.3</v>
       </c>
@@ -7266,7 +7326,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="304" spans="1:8">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>81.3</v>
       </c>
@@ -7292,7 +7352,7 @@
         <v>0.19400000000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:8">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>84.3</v>
       </c>
@@ -7318,7 +7378,7 @@
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:8">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>87.3</v>
       </c>
@@ -7344,7 +7404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:8">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>30</v>
       </c>
@@ -7358,7 +7418,7 @@
         <v>9000</v>
       </c>
     </row>
-    <row r="312" spans="1:8">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>26</v>
       </c>
@@ -7384,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="313" spans="1:8">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>40</v>
       </c>
@@ -7404,7 +7464,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="314" spans="1:8">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>0</v>
       </c>
@@ -7430,7 +7490,7 @@
         <v>1.4119999999999999</v>
       </c>
     </row>
-    <row r="315" spans="1:8">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>3.4</v>
       </c>
@@ -7456,7 +7516,7 @@
         <v>1.4139999999999999</v>
       </c>
     </row>
-    <row r="316" spans="1:8">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>6.8</v>
       </c>
@@ -7482,7 +7542,7 @@
         <v>1.4179999999999999</v>
       </c>
     </row>
-    <row r="317" spans="1:8">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>10.199999999999999</v>
       </c>
@@ -7508,7 +7568,7 @@
         <v>1.421</v>
       </c>
     </row>
-    <row r="318" spans="1:8">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>13.5</v>
       </c>
@@ -7534,7 +7594,7 @@
         <v>1.4239999999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:8">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>16.899999999999999</v>
       </c>
@@ -7560,7 +7620,7 @@
         <v>1.4279999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:8">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>20.3</v>
       </c>
@@ -7586,7 +7646,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="321" spans="1:8">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>23.7</v>
       </c>
@@ -7612,7 +7672,7 @@
         <v>1.4339999999999999</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>27.1</v>
       </c>
@@ -7638,7 +7698,7 @@
         <v>1.4359999999999999</v>
       </c>
     </row>
-    <row r="323" spans="1:8">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>30.5</v>
       </c>
@@ -7664,7 +7724,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="324" spans="1:8">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>33.9</v>
       </c>
@@ -7690,7 +7750,7 @@
         <v>1.4379999999999999</v>
       </c>
     </row>
-    <row r="325" spans="1:8">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>37.299999999999997</v>
       </c>
@@ -7716,7 +7776,7 @@
         <v>1.4370000000000001</v>
       </c>
     </row>
-    <row r="326" spans="1:8">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>40.6</v>
       </c>
@@ -7742,7 +7802,7 @@
         <v>1.4350000000000001</v>
       </c>
     </row>
-    <row r="327" spans="1:8">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>44</v>
       </c>
@@ -7768,7 +7828,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="328" spans="1:8">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>47.4</v>
       </c>
@@ -7794,7 +7854,7 @@
         <v>1.417</v>
       </c>
     </row>
-    <row r="329" spans="1:8">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>50.8</v>
       </c>
@@ -7820,7 +7880,7 @@
         <v>1.3939999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>54.2</v>
       </c>
@@ -7846,7 +7906,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="331" spans="1:8">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>57.6</v>
       </c>
@@ -7872,7 +7932,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="332" spans="1:8">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>61</v>
       </c>
@@ -7898,7 +7958,7 @@
         <v>1.2509999999999999</v>
       </c>
     </row>
-    <row r="333" spans="1:8">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>64.3</v>
       </c>
@@ -7924,7 +7984,7 @@
         <v>1.165</v>
       </c>
     </row>
-    <row r="334" spans="1:8">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>67.7</v>
       </c>
@@ -7950,7 +8010,7 @@
         <v>1.056</v>
       </c>
     </row>
-    <row r="335" spans="1:8">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>71.099999999999994</v>
       </c>
@@ -7976,7 +8036,7 @@
         <v>0.94599999999999995</v>
       </c>
     </row>
-    <row r="336" spans="1:8">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>74.5</v>
       </c>
@@ -8002,7 +8062,7 @@
         <v>0.83499999999999996</v>
       </c>
     </row>
-    <row r="337" spans="1:8">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>77.900000000000006</v>
       </c>
@@ -8028,7 +8088,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="338" spans="1:8">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>81.3</v>
       </c>
@@ -8054,7 +8114,7 @@
         <v>0.60499999999999998</v>
       </c>
     </row>
-    <row r="339" spans="1:8">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>84.7</v>
       </c>
@@ -8080,7 +8140,7 @@
         <v>0.48799999999999999</v>
       </c>
     </row>
-    <row r="340" spans="1:8">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>88</v>
       </c>
@@ -8106,7 +8166,7 @@
         <v>0.36799999999999999</v>
       </c>
     </row>
-    <row r="341" spans="1:8">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>91.4</v>
       </c>
@@ -8132,7 +8192,7 @@
         <v>0.246</v>
       </c>
     </row>
-    <row r="342" spans="1:8">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>94.8</v>
       </c>
@@ -8158,7 +8218,7 @@
         <v>0.123</v>
       </c>
     </row>
-    <row r="343" spans="1:8">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>98.2</v>
       </c>
@@ -8184,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:8">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -8198,7 +8258,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="349" spans="1:8">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>26</v>
       </c>
@@ -8224,7 +8284,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="350" spans="1:8">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>40</v>
       </c>
@@ -8244,7 +8304,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="351" spans="1:8">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>0</v>
       </c>
@@ -8270,7 +8330,7 @@
         <v>1.74</v>
       </c>
     </row>
-    <row r="352" spans="1:8">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>3.8</v>
       </c>
@@ -8296,7 +8356,7 @@
         <v>1.7430000000000001</v>
       </c>
     </row>
-    <row r="353" spans="1:8">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>7.5</v>
       </c>
@@ -8322,7 +8382,7 @@
         <v>1.7470000000000001</v>
       </c>
     </row>
-    <row r="354" spans="1:8">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>11.3</v>
       </c>
@@ -8348,7 +8408,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="355" spans="1:8">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>15</v>
       </c>
@@ -8374,7 +8434,7 @@
         <v>1.7549999999999999</v>
       </c>
     </row>
-    <row r="356" spans="1:8">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>18.8</v>
       </c>
@@ -8400,7 +8460,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="357" spans="1:8">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>22.6</v>
       </c>
@@ -8426,7 +8486,7 @@
         <v>1.764</v>
       </c>
     </row>
-    <row r="358" spans="1:8">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>26.3</v>
       </c>
@@ -8452,7 +8512,7 @@
         <v>1.7669999999999999</v>
       </c>
     </row>
-    <row r="359" spans="1:8">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>30.1</v>
       </c>
@@ -8478,7 +8538,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="360" spans="1:8">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>33.799999999999997</v>
       </c>
@@ -8504,7 +8564,7 @@
         <v>1.7729999999999999</v>
       </c>
     </row>
-    <row r="361" spans="1:8">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>37.6</v>
       </c>
@@ -8530,7 +8590,7 @@
         <v>1.774</v>
       </c>
     </row>
-    <row r="362" spans="1:8">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>41.4</v>
       </c>
@@ -8556,7 +8616,7 @@
         <v>1.7729999999999999</v>
       </c>
     </row>
-    <row r="363" spans="1:8">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>45.1</v>
       </c>
@@ -8582,7 +8642,7 @@
         <v>1.77</v>
       </c>
     </row>
-    <row r="364" spans="1:8">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>48.9</v>
       </c>
@@ -8608,7 +8668,7 @@
         <v>1.7649999999999999</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>52.7</v>
       </c>
@@ -8634,7 +8694,7 @@
         <v>1.7509999999999999</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>56.4</v>
       </c>
@@ -8660,7 +8720,7 @@
         <v>1.724</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>60.2</v>
       </c>
@@ -8686,7 +8746,7 @@
         <v>1.6839999999999999</v>
       </c>
     </row>
-    <row r="368" spans="1:8">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>63.9</v>
       </c>
@@ -8712,7 +8772,7 @@
         <v>1.627</v>
       </c>
     </row>
-    <row r="369" spans="1:8">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>67.7</v>
       </c>
@@ -8738,7 +8798,7 @@
         <v>1.552</v>
       </c>
     </row>
-    <row r="370" spans="1:8">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>71.5</v>
       </c>
@@ -8764,7 +8824,7 @@
         <v>1.448</v>
       </c>
     </row>
-    <row r="371" spans="1:8">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>75.2</v>
       </c>
@@ -8790,7 +8850,7 @@
         <v>1.3140000000000001</v>
       </c>
     </row>
-    <row r="372" spans="1:8">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>79</v>
       </c>
@@ -8816,7 +8876,7 @@
         <v>1.177</v>
       </c>
     </row>
-    <row r="373" spans="1:8">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>82.7</v>
       </c>
@@ -8842,7 +8902,7 @@
         <v>1.038</v>
       </c>
     </row>
-    <row r="374" spans="1:8">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>86.5</v>
       </c>
@@ -8868,7 +8928,7 @@
         <v>0.89700000000000002</v>
       </c>
     </row>
-    <row r="375" spans="1:8">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>90.3</v>
       </c>
@@ -8894,7 +8954,7 @@
         <v>0.753</v>
       </c>
     </row>
-    <row r="376" spans="1:8">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>94</v>
       </c>
@@ -8920,7 +8980,7 @@
         <v>0.60799999999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:8">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>97.8</v>
       </c>
@@ -8946,7 +9006,7 @@
         <v>0.45900000000000002</v>
       </c>
     </row>
-    <row r="378" spans="1:8">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>101.5</v>
       </c>
@@ -8972,7 +9032,7 @@
         <v>0.308</v>
       </c>
     </row>
-    <row r="379" spans="1:8">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>105.3</v>
       </c>
@@ -8998,7 +9058,7 @@
         <v>0.153</v>
       </c>
     </row>
-    <row r="380" spans="1:8">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>109.1</v>
       </c>
@@ -9024,7 +9084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:8">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>30</v>
       </c>
@@ -9038,7 +9098,7 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="386" spans="1:8">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>26</v>
       </c>
@@ -9064,7 +9124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="387" spans="1:8">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>40</v>
       </c>
@@ -9084,7 +9144,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="388" spans="1:8">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>0</v>
       </c>
@@ -9110,7 +9170,7 @@
         <v>2.1019999999999999</v>
       </c>
     </row>
-    <row r="389" spans="1:8">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>4.0999999999999996</v>
       </c>
@@ -9136,7 +9196,7 @@
         <v>2.1059999999999999</v>
       </c>
     </row>
-    <row r="390" spans="1:8">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>8.3000000000000007</v>
       </c>
@@ -9162,7 +9222,7 @@
         <v>2.11</v>
       </c>
     </row>
-    <row r="391" spans="1:8">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>12.4</v>
       </c>
@@ -9188,7 +9248,7 @@
         <v>2.1150000000000002</v>
       </c>
     </row>
-    <row r="392" spans="1:8">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>16.600000000000001</v>
       </c>
@@ -9214,7 +9274,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="393" spans="1:8">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>20.7</v>
       </c>
@@ -9240,7 +9300,7 @@
         <v>2.125</v>
       </c>
     </row>
-    <row r="394" spans="1:8">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>24.8</v>
       </c>
@@ -9266,7 +9326,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="395" spans="1:8">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>29</v>
       </c>
@@ -9292,7 +9352,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="396" spans="1:8">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>33.1</v>
       </c>
@@ -9318,7 +9378,7 @@
         <v>2.1389999999999998</v>
       </c>
     </row>
-    <row r="397" spans="1:8">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>37.299999999999997</v>
       </c>
@@ -9344,7 +9404,7 @@
         <v>2.1419999999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:8">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>41.4</v>
       </c>
@@ -9370,7 +9430,7 @@
         <v>2.1440000000000001</v>
       </c>
     </row>
-    <row r="399" spans="1:8">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>45.6</v>
       </c>
@@ -9396,7 +9456,7 @@
         <v>2.1429999999999998</v>
       </c>
     </row>
-    <row r="400" spans="1:8">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>49.7</v>
       </c>
@@ -9422,7 +9482,7 @@
         <v>2.1419999999999999</v>
       </c>
     </row>
-    <row r="401" spans="1:8">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>53.8</v>
       </c>
@@ -9448,7 +9508,7 @@
         <v>2.1349999999999998</v>
       </c>
     </row>
-    <row r="402" spans="1:8">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>58</v>
       </c>
@@ -9474,7 +9534,7 @@
         <v>2.1190000000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:8">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>62.1</v>
       </c>
@@ -9500,7 +9560,7 @@
         <v>2.089</v>
       </c>
     </row>
-    <row r="404" spans="1:8">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>66.3</v>
       </c>
@@ -9526,7 +9586,7 @@
         <v>2.0419999999999998</v>
       </c>
     </row>
-    <row r="405" spans="1:8">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>70.400000000000006</v>
       </c>
@@ -9552,7 +9612,7 @@
         <v>1.9750000000000001</v>
       </c>
     </row>
-    <row r="406" spans="1:8">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>74.5</v>
       </c>
@@ -9578,7 +9638,7 @@
         <v>1.885</v>
       </c>
     </row>
-    <row r="407" spans="1:8">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>78.7</v>
       </c>
@@ -9604,7 +9664,7 @@
         <v>1.7609999999999999</v>
       </c>
     </row>
-    <row r="408" spans="1:8">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>82.8</v>
       </c>
@@ -9630,7 +9690,7 @@
         <v>1.5980000000000001</v>
       </c>
     </row>
-    <row r="409" spans="1:8">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>87</v>
       </c>
@@ -9656,7 +9716,7 @@
         <v>1.431</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>91.1</v>
       </c>
@@ -9682,7 +9742,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="411" spans="1:8">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>95.3</v>
       </c>
@@ -9708,7 +9768,7 @@
         <v>1.0880000000000001</v>
       </c>
     </row>
-    <row r="412" spans="1:8">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>99.4</v>
       </c>
@@ -9734,7 +9794,7 @@
         <v>0.91300000000000003</v>
       </c>
     </row>
-    <row r="413" spans="1:8">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>103.5</v>
       </c>
@@ -9760,7 +9820,7 @@
         <v>0.73399999999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:8">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>107.7</v>
       </c>
@@ -9786,7 +9846,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="415" spans="1:8">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>111.8</v>
       </c>
@@ -9812,7 +9872,7 @@
         <v>0.373</v>
       </c>
     </row>
-    <row r="416" spans="1:8">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>116</v>
       </c>
@@ -9838,7 +9898,7 @@
         <v>0.187</v>
       </c>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>120.1</v>
       </c>
@@ -9864,7 +9924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:8">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>30</v>
       </c>
@@ -9878,7 +9938,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>26</v>
       </c>
@@ -9904,7 +9964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="424" spans="1:8">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>40</v>
       </c>
@@ -9924,7 +9984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="425" spans="1:8">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425">
         <v>0</v>
       </c>
@@ -9950,7 +10010,7 @@
         <v>2.4969999999999999</v>
       </c>
     </row>
-    <row r="426" spans="1:8">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426">
         <v>4.5</v>
       </c>
@@ -9976,7 +10036,7 @@
         <v>2.5009999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:8">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427">
         <v>9</v>
       </c>
@@ -10002,7 +10062,7 @@
         <v>2.5059999999999998</v>
       </c>
     </row>
-    <row r="428" spans="1:8">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428">
         <v>13.5</v>
       </c>
@@ -10028,7 +10088,7 @@
         <v>2.512</v>
       </c>
     </row>
-    <row r="429" spans="1:8">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429">
         <v>18.100000000000001</v>
       </c>
@@ -10054,7 +10114,7 @@
         <v>2.5179999999999998</v>
       </c>
     </row>
-    <row r="430" spans="1:8">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430">
         <v>22.6</v>
       </c>
@@ -10080,7 +10140,7 @@
         <v>2.524</v>
       </c>
     </row>
-    <row r="431" spans="1:8">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431">
         <v>27.1</v>
       </c>
@@ -10106,7 +10166,7 @@
         <v>2.5310000000000001</v>
       </c>
     </row>
-    <row r="432" spans="1:8">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432">
         <v>31.6</v>
       </c>
@@ -10132,7 +10192,7 @@
         <v>2.5369999999999999</v>
       </c>
     </row>
-    <row r="433" spans="1:8">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433">
         <v>36.1</v>
       </c>
@@ -10158,7 +10218,7 @@
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434">
         <v>40.6</v>
       </c>
@@ -10184,7 +10244,7 @@
         <v>2.5459999999999998</v>
       </c>
     </row>
-    <row r="435" spans="1:8">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435">
         <v>45.2</v>
       </c>
@@ -10210,7 +10270,7 @@
         <v>2.5489999999999999</v>
       </c>
     </row>
-    <row r="436" spans="1:8">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436">
         <v>49.7</v>
       </c>
@@ -10236,7 +10296,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="437" spans="1:8">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437">
         <v>54.2</v>
       </c>
@@ -10262,7 +10322,7 @@
         <v>2.548</v>
       </c>
     </row>
-    <row r="438" spans="1:8">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438">
         <v>58.7</v>
       </c>
@@ -10288,7 +10348,7 @@
         <v>2.5419999999999998</v>
       </c>
     </row>
-    <row r="439" spans="1:8">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439">
         <v>63.2</v>
       </c>
@@ -10314,7 +10374,7 @@
         <v>2.5249999999999999</v>
       </c>
     </row>
-    <row r="440" spans="1:8">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440">
         <v>67.7</v>
       </c>
@@ -10340,7 +10400,7 @@
         <v>2.492</v>
       </c>
     </row>
-    <row r="441" spans="1:8">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441">
         <v>72.3</v>
       </c>
@@ -10366,7 +10426,7 @@
         <v>2.4380000000000002</v>
       </c>
     </row>
-    <row r="442" spans="1:8">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442">
         <v>76.8</v>
       </c>
@@ -10392,7 +10452,7 @@
         <v>2.3620000000000001</v>
       </c>
     </row>
-    <row r="443" spans="1:8">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443">
         <v>81.3</v>
       </c>
@@ -10418,7 +10478,7 @@
         <v>2.2570000000000001</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444">
         <v>85.8</v>
       </c>
@@ -10444,7 +10504,7 @@
         <v>2.1139999999999999</v>
       </c>
     </row>
-    <row r="445" spans="1:8">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445">
         <v>90.3</v>
       </c>
@@ -10470,7 +10530,7 @@
         <v>1.919</v>
       </c>
     </row>
-    <row r="446" spans="1:8">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446">
         <v>94.8</v>
       </c>
@@ -10496,7 +10556,7 @@
         <v>1.7190000000000001</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447">
         <v>99.4</v>
       </c>
@@ -10522,7 +10582,7 @@
         <v>1.516</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448">
         <v>103.9</v>
       </c>
@@ -10548,7 +10608,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449">
         <v>108.4</v>
       </c>
@@ -10574,7 +10634,7 @@
         <v>1.101</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450">
         <v>112.9</v>
       </c>
@@ -10600,7 +10660,7 @@
         <v>0.88800000000000001</v>
       </c>
     </row>
-    <row r="451" spans="1:8">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451">
         <v>117.4</v>
       </c>
@@ -10626,7 +10686,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="452" spans="1:8">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452">
         <v>121.9</v>
       </c>
@@ -10652,7 +10712,7 @@
         <v>0.44900000000000001</v>
       </c>
     </row>
-    <row r="453" spans="1:8">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453">
         <v>126.5</v>
       </c>
@@ -10678,7 +10738,7 @@
         <v>0.22500000000000001</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454">
         <v>131</v>
       </c>
@@ -10704,7 +10764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:8">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>30</v>
       </c>
@@ -10718,7 +10778,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="460" spans="1:8">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>26</v>
       </c>
@@ -10744,7 +10804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="461" spans="1:8">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>40</v>
       </c>
@@ -10764,7 +10824,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="462" spans="1:8">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462">
         <v>0</v>
       </c>
@@ -10790,7 +10850,7 @@
         <v>2.9260000000000002</v>
       </c>
     </row>
-    <row r="463" spans="1:8">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463">
         <v>4.9000000000000004</v>
       </c>
@@ -10816,7 +10876,7 @@
         <v>2.931</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464">
         <v>9.8000000000000007</v>
       </c>
@@ -10842,7 +10902,7 @@
         <v>2.9369999999999998</v>
       </c>
     </row>
-    <row r="465" spans="1:8">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465">
         <v>14.7</v>
       </c>
@@ -10868,7 +10928,7 @@
         <v>2.9430000000000001</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466">
         <v>19.600000000000001</v>
       </c>
@@ -10894,7 +10954,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="467" spans="1:8">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467">
         <v>24.5</v>
       </c>
@@ -10920,7 +10980,7 @@
         <v>2.9580000000000002</v>
       </c>
     </row>
-    <row r="468" spans="1:8">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468">
         <v>29.4</v>
       </c>
@@ -10946,7 +11006,7 @@
         <v>2.9660000000000002</v>
       </c>
     </row>
-    <row r="469" spans="1:8">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469">
         <v>34.299999999999997</v>
       </c>
@@ -10972,7 +11032,7 @@
         <v>2.9729999999999999</v>
       </c>
     </row>
-    <row r="470" spans="1:8">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470">
         <v>39.200000000000003</v>
       </c>
@@ -10998,7 +11058,7 @@
         <v>2.98</v>
       </c>
     </row>
-    <row r="471" spans="1:8">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471">
         <v>44.1</v>
       </c>
@@ -11024,7 +11084,7 @@
         <v>2.9849999999999999</v>
       </c>
     </row>
-    <row r="472" spans="1:8">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472">
         <v>49</v>
       </c>
@@ -11050,7 +11110,7 @@
         <v>2.9889999999999999</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473">
         <v>53.9</v>
       </c>
@@ -11076,7 +11136,7 @@
         <v>2.992</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474">
         <v>58.8</v>
       </c>
@@ -11102,7 +11162,7 @@
         <v>2.9910000000000001</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475">
         <v>63.7</v>
       </c>
@@ -11128,7 +11188,7 @@
         <v>2.9849999999999999</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476">
         <v>68.599999999999994</v>
       </c>
@@ -11154,7 +11214,7 @@
         <v>2.9670000000000001</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477">
         <v>73.5</v>
       </c>
@@ -11180,7 +11240,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478">
         <v>78.400000000000006</v>
       </c>
@@ -11206,7 +11266,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479">
         <v>83.3</v>
       </c>
@@ -11232,7 +11292,7 @@
         <v>2.7829999999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:8">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480">
         <v>88.2</v>
       </c>
@@ -11258,7 +11318,7 @@
         <v>2.661</v>
       </c>
     </row>
-    <row r="481" spans="1:8">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481">
         <v>93.1</v>
       </c>
@@ -11284,7 +11344,7 @@
         <v>2.4950000000000001</v>
       </c>
     </row>
-    <row r="482" spans="1:8">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482">
         <v>98</v>
       </c>
@@ -11310,7 +11370,7 @@
         <v>2.2650000000000001</v>
       </c>
     </row>
-    <row r="483" spans="1:8">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483">
         <v>102.9</v>
       </c>
@@ -11336,7 +11396,7 @@
         <v>2.0289999999999999</v>
       </c>
     </row>
-    <row r="484" spans="1:8">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484">
         <v>107.8</v>
       </c>
@@ -11362,7 +11422,7 @@
         <v>1.7869999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:8">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485">
         <v>112.7</v>
       </c>
@@ -11388,7 +11448,7 @@
         <v>1.542</v>
       </c>
     </row>
-    <row r="486" spans="1:8">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486">
         <v>117.6</v>
       </c>
@@ -11414,7 +11474,7 @@
         <v>1.294</v>
       </c>
     </row>
-    <row r="487" spans="1:8">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487">
         <v>122.5</v>
       </c>
@@ -11440,7 +11500,7 @@
         <v>1.0389999999999999</v>
       </c>
     </row>
-    <row r="488" spans="1:8">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488">
         <v>127.4</v>
       </c>
@@ -11466,7 +11526,7 @@
         <v>0.78200000000000003</v>
       </c>
     </row>
-    <row r="489" spans="1:8">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489">
         <v>132.4</v>
       </c>
@@ -11492,7 +11552,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="490" spans="1:8">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490">
         <v>137.30000000000001</v>
       </c>
@@ -11518,7 +11578,7 @@
         <v>0.254</v>
       </c>
     </row>
-    <row r="491" spans="1:8">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491">
         <v>142.19999999999999</v>
       </c>
@@ -11544,7 +11604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:8">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>30</v>
       </c>
@@ -11558,7 +11618,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="497" spans="1:8">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>26</v>
       </c>
@@ -11584,7 +11644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="498" spans="1:8">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>40</v>
       </c>
@@ -11604,7 +11664,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="499" spans="1:8">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499">
         <v>0</v>
       </c>
@@ -11630,7 +11690,7 @@
         <v>3.3889999999999998</v>
       </c>
     </row>
-    <row r="500" spans="1:8">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500">
         <v>5.3</v>
       </c>
@@ -11656,7 +11716,7 @@
         <v>3.3940000000000001</v>
       </c>
     </row>
-    <row r="501" spans="1:8">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501">
         <v>10.5</v>
       </c>
@@ -11682,7 +11742,7 @@
         <v>3.4009999999999998</v>
       </c>
     </row>
-    <row r="502" spans="1:8">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502">
         <v>15.8</v>
       </c>
@@ -11708,7 +11768,7 @@
         <v>3.4079999999999999</v>
       </c>
     </row>
-    <row r="503" spans="1:8">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503">
         <v>21.1</v>
       </c>
@@ -11734,7 +11794,7 @@
         <v>3.4159999999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:8">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504">
         <v>26.4</v>
       </c>
@@ -11760,7 +11820,7 @@
         <v>3.4249999999999998</v>
       </c>
     </row>
-    <row r="505" spans="1:8">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505">
         <v>31.6</v>
       </c>
@@ -11786,7 +11846,7 @@
         <v>3.4340000000000002</v>
       </c>
     </row>
-    <row r="506" spans="1:8">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506">
         <v>36.9</v>
       </c>
@@ -11812,7 +11872,7 @@
         <v>3.4430000000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:8">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507">
         <v>42.2</v>
       </c>
@@ -11838,7 +11898,7 @@
         <v>3.452</v>
       </c>
     </row>
-    <row r="508" spans="1:8">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508">
         <v>47.4</v>
       </c>
@@ -11864,7 +11924,7 @@
         <v>3.4590000000000001</v>
       </c>
     </row>
-    <row r="509" spans="1:8">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509">
         <v>52.7</v>
       </c>
@@ -11890,7 +11950,7 @@
         <v>3.4649999999999999</v>
       </c>
     </row>
-    <row r="510" spans="1:8">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510">
         <v>58</v>
       </c>
@@ -11916,7 +11976,7 @@
         <v>3.4689999999999999</v>
       </c>
     </row>
-    <row r="511" spans="1:8">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511">
         <v>63.3</v>
       </c>
@@ -11942,7 +12002,7 @@
         <v>3.47</v>
       </c>
     </row>
-    <row r="512" spans="1:8">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512">
         <v>68.5</v>
       </c>
@@ -11968,7 +12028,7 @@
         <v>3.4670000000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:8">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513">
         <v>73.8</v>
       </c>
@@ -11994,7 +12054,7 @@
         <v>3.4470000000000001</v>
       </c>
     </row>
-    <row r="514" spans="1:8">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514">
         <v>79.099999999999994</v>
       </c>
@@ -12020,7 +12080,7 @@
         <v>3.4089999999999998</v>
       </c>
     </row>
-    <row r="515" spans="1:8">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515">
         <v>84.3</v>
       </c>
@@ -12046,7 +12106,7 @@
         <v>3.343</v>
       </c>
     </row>
-    <row r="516" spans="1:8">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516">
         <v>89.6</v>
       </c>
@@ -12072,7 +12132,7 @@
         <v>3.2480000000000002</v>
       </c>
     </row>
-    <row r="517" spans="1:8">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517">
         <v>94.9</v>
       </c>
@@ -12098,7 +12158,7 @@
         <v>3.113</v>
       </c>
     </row>
-    <row r="518" spans="1:8">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518">
         <v>100.2</v>
       </c>
@@ -12124,7 +12184,7 @@
         <v>2.9279999999999999</v>
       </c>
     </row>
-    <row r="519" spans="1:8">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519">
         <v>105.4</v>
       </c>
@@ -12150,7 +12210,7 @@
         <v>2.665</v>
       </c>
     </row>
-    <row r="520" spans="1:8">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520">
         <v>110.7</v>
       </c>
@@ -12176,7 +12236,7 @@
         <v>2.3879999999999999</v>
       </c>
     </row>
-    <row r="521" spans="1:8">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521">
         <v>116</v>
       </c>
@@ -12202,7 +12262,7 @@
         <v>2.105</v>
       </c>
     </row>
-    <row r="522" spans="1:8">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522">
         <v>121.2</v>
       </c>
@@ -12228,7 +12288,7 @@
         <v>1.819</v>
       </c>
     </row>
-    <row r="523" spans="1:8">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523">
         <v>126.5</v>
       </c>
@@ -12254,7 +12314,7 @@
         <v>1.5289999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:8">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524">
         <v>131.80000000000001</v>
       </c>
@@ -12280,7 +12340,7 @@
         <v>1.2410000000000001</v>
       </c>
     </row>
-    <row r="525" spans="1:8">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525">
         <v>137.1</v>
       </c>
@@ -12306,7 +12366,7 @@
         <v>0.94099999999999995</v>
       </c>
     </row>
-    <row r="526" spans="1:8">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526">
         <v>142.30000000000001</v>
       </c>
@@ -12332,7 +12392,7 @@
         <v>0.63600000000000001</v>
       </c>
     </row>
-    <row r="527" spans="1:8">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527">
         <v>147.6</v>
       </c>
@@ -12358,7 +12418,7 @@
         <v>0.32600000000000001</v>
       </c>
     </row>
-    <row r="528" spans="1:8">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528">
         <v>152.9</v>
       </c>
@@ -12384,7 +12444,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="532" spans="1:8">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>30</v>
       </c>
@@ -12398,7 +12458,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="534" spans="1:8">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>26</v>
       </c>
@@ -12424,7 +12484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="535" spans="1:8">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>40</v>
       </c>
@@ -12444,7 +12504,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="536" spans="1:8">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>0</v>
       </c>
@@ -12470,7 +12530,7 @@
         <v>3.8849999999999998</v>
       </c>
     </row>
-    <row r="537" spans="1:8">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>5.6</v>
       </c>
@@ -12496,7 +12556,7 @@
         <v>3.891</v>
       </c>
     </row>
-    <row r="538" spans="1:8">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>11.3</v>
       </c>
@@ -12522,7 +12582,7 @@
         <v>3.8980000000000001</v>
       </c>
     </row>
-    <row r="539" spans="1:8">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>16.899999999999999</v>
       </c>
@@ -12548,7 +12608,7 @@
         <v>3.907</v>
       </c>
     </row>
-    <row r="540" spans="1:8">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>22.6</v>
       </c>
@@ -12574,7 +12634,7 @@
         <v>3.915</v>
       </c>
     </row>
-    <row r="541" spans="1:8">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>28.2</v>
       </c>
@@ -12600,7 +12660,7 @@
         <v>3.9249999999999998</v>
       </c>
     </row>
-    <row r="542" spans="1:8">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>33.9</v>
       </c>
@@ -12626,7 +12686,7 @@
         <v>3.9359999999999999</v>
       </c>
     </row>
-    <row r="543" spans="1:8">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>39.5</v>
       </c>
@@ -12652,7 +12712,7 @@
         <v>3.9470000000000001</v>
       </c>
     </row>
-    <row r="544" spans="1:8">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>45.2</v>
       </c>
@@ -12678,7 +12738,7 @@
         <v>3.9580000000000002</v>
       </c>
     </row>
-    <row r="545" spans="1:8">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>50.8</v>
       </c>
@@ -12704,7 +12764,7 @@
         <v>3.968</v>
       </c>
     </row>
-    <row r="546" spans="1:8">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>56.4</v>
       </c>
@@ -12730,7 +12790,7 @@
         <v>3.976</v>
       </c>
     </row>
-    <row r="547" spans="1:8">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>62.1</v>
       </c>
@@ -12756,7 +12816,7 @@
         <v>3.9820000000000002</v>
       </c>
     </row>
-    <row r="548" spans="1:8">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>67.7</v>
       </c>
@@ -12782,7 +12842,7 @@
         <v>3.9849999999999999</v>
       </c>
     </row>
-    <row r="549" spans="1:8">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>73.400000000000006</v>
       </c>
@@ -12808,7 +12868,7 @@
         <v>3.9870000000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:8">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>79</v>
       </c>
@@ -12834,7 +12894,7 @@
         <v>3.9710000000000001</v>
       </c>
     </row>
-    <row r="551" spans="1:8">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>84.7</v>
       </c>
@@ -12860,7 +12920,7 @@
         <v>3.9329999999999998</v>
       </c>
     </row>
-    <row r="552" spans="1:8">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>90.3</v>
       </c>
@@ -12886,7 +12946,7 @@
         <v>3.8650000000000002</v>
       </c>
     </row>
-    <row r="553" spans="1:8">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>96</v>
       </c>
@@ -12912,7 +12972,7 @@
         <v>3.7610000000000001</v>
       </c>
     </row>
-    <row r="554" spans="1:8">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>101.6</v>
       </c>
@@ -12938,7 +12998,7 @@
         <v>3.6120000000000001</v>
       </c>
     </row>
-    <row r="555" spans="1:8">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>107.2</v>
       </c>
@@ -12964,7 +13024,7 @@
         <v>3.4049999999999998</v>
       </c>
     </row>
-    <row r="556" spans="1:8">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>112.9</v>
       </c>
@@ -12990,7 +13050,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="557" spans="1:8">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>118.5</v>
       </c>
@@ -13016,7 +13076,7 @@
         <v>2.7850000000000001</v>
       </c>
     </row>
-    <row r="558" spans="1:8">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>124.2</v>
       </c>
@@ -13042,7 +13102,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="559" spans="1:8">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>129.80000000000001</v>
       </c>
@@ -13068,7 +13128,7 @@
         <v>2.13</v>
       </c>
     </row>
-    <row r="560" spans="1:8">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>135.5</v>
       </c>
@@ -13094,7 +13154,7 @@
         <v>1.794</v>
       </c>
     </row>
-    <row r="561" spans="1:8">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561">
         <v>141.1</v>
       </c>
@@ -13120,7 +13180,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="562" spans="1:8">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562">
         <v>146.80000000000001</v>
       </c>
@@ -13146,7 +13206,7 @@
         <v>1.091</v>
       </c>
     </row>
-    <row r="563" spans="1:8">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563">
         <v>152.4</v>
       </c>
@@ -13172,7 +13232,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="564" spans="1:8">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564">
         <v>158</v>
       </c>
@@ -13198,7 +13258,7 @@
         <v>0.36599999999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:8">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565">
         <v>163.69999999999999</v>
       </c>
@@ -13224,7 +13284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:8">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>30</v>
       </c>
@@ -13238,7 +13298,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="571" spans="1:8">
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>26</v>
       </c>
@@ -13264,7 +13324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="572" spans="1:8">
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>40</v>
       </c>
@@ -13284,7 +13344,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="573" spans="1:8">
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573">
         <v>0</v>
       </c>
@@ -13310,7 +13370,7 @@
         <v>4.4729999999999999</v>
       </c>
     </row>
-    <row r="574" spans="1:8">
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574">
         <v>6</v>
       </c>
@@ -13336,7 +13396,7 @@
         <v>4.4820000000000002</v>
       </c>
     </row>
-    <row r="575" spans="1:8">
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575">
         <v>12</v>
       </c>
@@ -13362,7 +13422,7 @@
         <v>4.4930000000000003</v>
       </c>
     </row>
-    <row r="576" spans="1:8">
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576">
         <v>18.100000000000001</v>
       </c>
@@ -13388,7 +13448,7 @@
         <v>4.5049999999999999</v>
       </c>
     </row>
-    <row r="577" spans="1:8">
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577">
         <v>24.1</v>
       </c>
@@ -13414,7 +13474,7 @@
         <v>4.5179999999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:8">
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578">
         <v>30.1</v>
       </c>
@@ -13440,7 +13500,7 @@
         <v>4.5330000000000004</v>
       </c>
     </row>
-    <row r="579" spans="1:8">
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579">
         <v>36.1</v>
       </c>
@@ -13466,7 +13526,7 @@
         <v>4.548</v>
       </c>
     </row>
-    <row r="580" spans="1:8">
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580">
         <v>42.1</v>
       </c>
@@ -13492,7 +13552,7 @@
         <v>4.5650000000000004</v>
       </c>
     </row>
-    <row r="581" spans="1:8">
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581">
         <v>48.1</v>
       </c>
@@ -13518,7 +13578,7 @@
         <v>4.5810000000000004</v>
       </c>
     </row>
-    <row r="582" spans="1:8">
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582">
         <v>54.2</v>
       </c>
@@ -13544,7 +13604,7 @@
         <v>4.5949999999999998</v>
       </c>
     </row>
-    <row r="583" spans="1:8">
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583">
         <v>60.2</v>
       </c>
@@ -13570,7 +13630,7 @@
         <v>4.6059999999999999</v>
       </c>
     </row>
-    <row r="584" spans="1:8">
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584">
         <v>66.2</v>
       </c>
@@ -13596,7 +13656,7 @@
         <v>4.6139999999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:8">
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585">
         <v>72.2</v>
       </c>
@@ -13622,7 +13682,7 @@
         <v>4.617</v>
       </c>
     </row>
-    <row r="586" spans="1:8">
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586">
         <v>78.2</v>
       </c>
@@ -13648,7 +13708,7 @@
         <v>4.6109999999999998</v>
       </c>
     </row>
-    <row r="587" spans="1:8">
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587">
         <v>84.2</v>
       </c>
@@ -13674,7 +13734,7 @@
         <v>4.5869999999999997</v>
       </c>
     </row>
-    <row r="588" spans="1:8">
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588">
         <v>90.3</v>
       </c>
@@ -13700,7 +13760,7 @@
         <v>4.5389999999999997</v>
       </c>
     </row>
-    <row r="589" spans="1:8">
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589">
         <v>96.3</v>
       </c>
@@ -13726,7 +13786,7 @@
         <v>4.4569999999999999</v>
       </c>
     </row>
-    <row r="590" spans="1:8">
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590">
         <v>102.3</v>
       </c>
@@ -13752,7 +13812,7 @@
         <v>4.3369999999999997</v>
       </c>
     </row>
-    <row r="591" spans="1:8">
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591">
         <v>108.3</v>
       </c>
@@ -13778,7 +13838,7 @@
         <v>4.1669999999999998</v>
       </c>
     </row>
-    <row r="592" spans="1:8">
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592">
         <v>114.3</v>
       </c>
@@ -13804,7 +13864,7 @@
         <v>3.9340000000000002</v>
       </c>
     </row>
-    <row r="593" spans="1:8">
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593">
         <v>120.4</v>
       </c>
@@ -13830,7 +13890,7 @@
         <v>3.5960000000000001</v>
       </c>
     </row>
-    <row r="594" spans="1:8">
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594">
         <v>126.4</v>
       </c>
@@ -13856,7 +13916,7 @@
         <v>3.2229999999999999</v>
       </c>
     </row>
-    <row r="595" spans="1:8">
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595">
         <v>132.4</v>
       </c>
@@ -13882,7 +13942,7 @@
         <v>2.847</v>
       </c>
     </row>
-    <row r="596" spans="1:8">
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596">
         <v>138.4</v>
       </c>
@@ -13908,7 +13968,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="597" spans="1:8">
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597">
         <v>144.4</v>
       </c>
@@ -13934,7 +13994,7 @@
         <v>2.069</v>
       </c>
     </row>
-    <row r="598" spans="1:8">
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598">
         <v>150.4</v>
       </c>
@@ -13960,7 +14020,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="599" spans="1:8">
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599">
         <v>156.5</v>
       </c>
@@ -13986,7 +14046,7 @@
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="600" spans="1:8">
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600">
         <v>162.5</v>
       </c>
@@ -14012,7 +14072,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="601" spans="1:8">
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601">
         <v>168.5</v>
       </c>
@@ -14038,7 +14098,7 @@
         <v>0.42799999999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:8">
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602">
         <v>174.5</v>
       </c>
@@ -14064,7 +14124,7 @@
         <v>-3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="606" spans="1:8">
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>30</v>
       </c>
@@ -14078,7 +14138,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="608" spans="1:8">
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>26</v>
       </c>
@@ -14104,7 +14164,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="609" spans="1:8">
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>40</v>
       </c>
@@ -14124,7 +14184,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="610" spans="1:8">
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610">
         <v>0</v>
       </c>
@@ -14150,7 +14210,7 @@
         <v>5.1509999999999998</v>
       </c>
     </row>
-    <row r="611" spans="1:8">
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611">
         <v>6.4</v>
       </c>
@@ -14176,7 +14236,7 @@
         <v>5.165</v>
       </c>
     </row>
-    <row r="612" spans="1:8">
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612">
         <v>12.8</v>
       </c>
@@ -14202,7 +14262,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="613" spans="1:8">
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613">
         <v>19.2</v>
       </c>
@@ -14228,7 +14288,7 @@
         <v>5.1970000000000001</v>
       </c>
     </row>
-    <row r="614" spans="1:8">
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614">
         <v>25.6</v>
       </c>
@@ -14254,7 +14314,7 @@
         <v>5.2140000000000004</v>
       </c>
     </row>
-    <row r="615" spans="1:8">
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615">
         <v>32</v>
       </c>
@@ -14280,7 +14340,7 @@
         <v>5.2309999999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:8">
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616">
         <v>38.299999999999997</v>
       </c>
@@ -14306,7 +14366,7 @@
         <v>5.2489999999999997</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617">
         <v>44.7</v>
       </c>
@@ -14332,7 +14392,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="618" spans="1:8">
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618">
         <v>51.1</v>
       </c>
@@ -14358,7 +14418,7 @@
         <v>5.2830000000000004</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619">
         <v>57.5</v>
       </c>
@@ -14384,7 +14444,7 @@
         <v>5.298</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620">
         <v>63.9</v>
       </c>
@@ -14410,7 +14470,7 @@
         <v>5.3070000000000004</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621">
         <v>70.3</v>
       </c>
@@ -14436,7 +14496,7 @@
         <v>5.3109999999999999</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622">
         <v>76.7</v>
       </c>
@@ -14462,7 +14522,7 @@
         <v>5.3079999999999998</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623">
         <v>83.1</v>
       </c>
@@ -14488,7 +14548,7 @@
         <v>5.2949999999999999</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624">
         <v>89.5</v>
       </c>
@@ -14514,7 +14574,7 @@
         <v>5.26</v>
       </c>
     </row>
-    <row r="625" spans="1:8">
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625">
         <v>95.9</v>
       </c>
@@ -14540,7 +14600,7 @@
         <v>5.1970000000000001</v>
       </c>
     </row>
-    <row r="626" spans="1:8">
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626">
         <v>102.3</v>
       </c>
@@ -14566,7 +14626,7 @@
         <v>5.1029999999999998</v>
       </c>
     </row>
-    <row r="627" spans="1:8">
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627">
         <v>108.7</v>
       </c>
@@ -14592,7 +14652,7 @@
         <v>4.9669999999999996</v>
       </c>
     </row>
-    <row r="628" spans="1:8">
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628">
         <v>115</v>
       </c>
@@ -14618,7 +14678,7 @@
         <v>4.7759999999999998</v>
       </c>
     </row>
-    <row r="629" spans="1:8">
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629">
         <v>121.4</v>
       </c>
@@ -14644,7 +14704,7 @@
         <v>4.516</v>
       </c>
     </row>
-    <row r="630" spans="1:8">
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630">
         <v>127.8</v>
       </c>
@@ -14670,7 +14730,7 @@
         <v>4.1390000000000002</v>
       </c>
     </row>
-    <row r="631" spans="1:8">
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631">
         <v>134.19999999999999</v>
       </c>
@@ -14696,7 +14756,7 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="632" spans="1:8">
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632">
         <v>140.6</v>
       </c>
@@ -14722,7 +14782,7 @@
         <v>3.2770000000000001</v>
       </c>
     </row>
-    <row r="633" spans="1:8">
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633">
         <v>147</v>
       </c>
@@ -14748,7 +14808,7 @@
         <v>2.8359999999999999</v>
       </c>
     </row>
-    <row r="634" spans="1:8">
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634">
         <v>153.4</v>
       </c>
@@ -14774,7 +14834,7 @@
         <v>2.383</v>
       </c>
     </row>
-    <row r="635" spans="1:8">
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635">
         <v>159.80000000000001</v>
       </c>
@@ -14800,7 +14860,7 @@
         <v>1.923</v>
       </c>
     </row>
-    <row r="636" spans="1:8">
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636">
         <v>166.2</v>
       </c>
@@ -14826,7 +14886,7 @@
         <v>1.456</v>
       </c>
     </row>
-    <row r="637" spans="1:8">
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637">
         <v>172.6</v>
       </c>
@@ -14852,7 +14912,7 @@
         <v>0.98</v>
       </c>
     </row>
-    <row r="638" spans="1:8">
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638">
         <v>179</v>
       </c>
@@ -14878,7 +14938,7 @@
         <v>0.49199999999999999</v>
       </c>
     </row>
-    <row r="639" spans="1:8">
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639">
         <v>185.4</v>
       </c>
@@ -14904,7 +14964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:8">
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>30</v>
       </c>
@@ -14918,7 +14978,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="645" spans="1:8">
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>26</v>
       </c>
@@ -14944,7 +15004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="646" spans="1:8">
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>40</v>
       </c>
@@ -14964,7 +15024,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="647" spans="1:8">
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>0</v>
       </c>
@@ -14990,7 +15050,7 @@
         <v>5.891</v>
       </c>
     </row>
-    <row r="648" spans="1:8">
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>6.8</v>
       </c>
@@ -15016,7 +15076,7 @@
         <v>5.9109999999999996</v>
       </c>
     </row>
-    <row r="649" spans="1:8">
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>13.5</v>
       </c>
@@ -15042,7 +15102,7 @@
         <v>5.9329999999999998</v>
       </c>
     </row>
-    <row r="650" spans="1:8">
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>20.3</v>
       </c>
@@ -15068,7 +15128,7 @@
         <v>5.9539999999999997</v>
       </c>
     </row>
-    <row r="651" spans="1:8">
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>27.1</v>
       </c>
@@ -15094,7 +15154,7 @@
         <v>5.976</v>
       </c>
     </row>
-    <row r="652" spans="1:8">
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>33.9</v>
       </c>
@@ -15120,7 +15180,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="653" spans="1:8">
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>40.6</v>
       </c>
@@ -15146,7 +15206,7 @@
         <v>6.0170000000000003</v>
       </c>
     </row>
-    <row r="654" spans="1:8">
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>47.4</v>
       </c>
@@ -15172,7 +15232,7 @@
         <v>6.0369999999999999</v>
       </c>
     </row>
-    <row r="655" spans="1:8">
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>54.2</v>
       </c>
@@ -15198,7 +15258,7 @@
         <v>6.0529999999999999</v>
       </c>
     </row>
-    <row r="656" spans="1:8">
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>61</v>
       </c>
@@ -15224,7 +15284,7 @@
         <v>6.0670000000000002</v>
       </c>
     </row>
-    <row r="657" spans="1:8">
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>67.7</v>
       </c>
@@ -15250,7 +15310,7 @@
         <v>6.0759999999999996</v>
       </c>
     </row>
-    <row r="658" spans="1:8">
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>74.5</v>
       </c>
@@ -15276,7 +15336,7 @@
         <v>6.0759999999999996</v>
       </c>
     </row>
-    <row r="659" spans="1:8">
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>81.3</v>
       </c>
@@ -15302,7 +15362,7 @@
         <v>6.0659999999999998</v>
       </c>
     </row>
-    <row r="660" spans="1:8">
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>88.1</v>
       </c>
@@ -15328,7 +15388,7 @@
         <v>6.0439999999999996</v>
       </c>
     </row>
-    <row r="661" spans="1:8">
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>94.8</v>
       </c>
@@ -15354,7 +15414,7 @@
         <v>5.9969999999999999</v>
       </c>
     </row>
-    <row r="662" spans="1:8">
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>101.6</v>
       </c>
@@ -15380,7 +15440,7 @@
         <v>5.9219999999999997</v>
       </c>
     </row>
-    <row r="663" spans="1:8">
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>108.4</v>
       </c>
@@ -15406,7 +15466,7 @@
         <v>5.81</v>
       </c>
     </row>
-    <row r="664" spans="1:8">
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>115.2</v>
       </c>
@@ -15432,7 +15492,7 @@
         <v>5.6559999999999997</v>
       </c>
     </row>
-    <row r="665" spans="1:8">
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>121.9</v>
       </c>
@@ -15458,7 +15518,7 @@
         <v>5.444</v>
       </c>
     </row>
-    <row r="666" spans="1:8">
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>128.69999999999999</v>
       </c>
@@ -15484,7 +15544,7 @@
         <v>5.1529999999999996</v>
       </c>
     </row>
-    <row r="667" spans="1:8">
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>135.5</v>
       </c>
@@ -15510,7 +15570,7 @@
         <v>4.7370000000000001</v>
       </c>
     </row>
-    <row r="668" spans="1:8">
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>142.30000000000001</v>
       </c>
@@ -15536,7 +15596,7 @@
         <v>4.2430000000000003</v>
       </c>
     </row>
-    <row r="669" spans="1:8">
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>149</v>
       </c>
@@ -15562,7 +15622,7 @@
         <v>3.7480000000000002</v>
       </c>
     </row>
-    <row r="670" spans="1:8">
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>155.80000000000001</v>
       </c>
@@ -15588,7 +15648,7 @@
         <v>3.2429999999999999</v>
       </c>
     </row>
-    <row r="671" spans="1:8">
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>162.6</v>
       </c>
@@ -15614,7 +15674,7 @@
         <v>2.7269999999999999</v>
       </c>
     </row>
-    <row r="672" spans="1:8">
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>169.4</v>
       </c>
@@ -15640,7 +15700,7 @@
         <v>2.1989999999999998</v>
       </c>
     </row>
-    <row r="673" spans="1:8">
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673">
         <v>176.1</v>
       </c>
@@ -15666,7 +15726,7 @@
         <v>1.665</v>
       </c>
     </row>
-    <row r="674" spans="1:8">
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674">
         <v>182.9</v>
       </c>
@@ -15692,7 +15752,7 @@
         <v>1.1180000000000001</v>
       </c>
     </row>
-    <row r="675" spans="1:8">
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675">
         <v>189.7</v>
       </c>
@@ -15718,7 +15778,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="676" spans="1:8">
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676">
         <v>196.5</v>
       </c>
@@ -15744,7 +15804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:8">
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>30</v>
       </c>
@@ -15758,7 +15818,7 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="682" spans="1:8">
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>26</v>
       </c>
@@ -15784,7 +15844,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="683" spans="1:8">
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>40</v>
       </c>
@@ -15804,7 +15864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="684" spans="1:8">
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684">
         <v>0</v>
       </c>
@@ -15830,7 +15890,7 @@
         <v>6.7050000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:8">
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685">
         <v>7.1</v>
       </c>
@@ -15856,7 +15916,7 @@
         <v>6.7329999999999997</v>
       </c>
     </row>
-    <row r="686" spans="1:8">
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686">
         <v>14.3</v>
       </c>
@@ -15882,7 +15942,7 @@
         <v>6.7619999999999996</v>
       </c>
     </row>
-    <row r="687" spans="1:8">
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687">
         <v>21.4</v>
       </c>
@@ -15908,7 +15968,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="688" spans="1:8">
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688">
         <v>28.6</v>
       </c>
@@ -15934,7 +15994,7 @@
         <v>6.8179999999999996</v>
       </c>
     </row>
-    <row r="689" spans="1:8">
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689">
         <v>35.700000000000003</v>
       </c>
@@ -15960,7 +16020,7 @@
         <v>6.8440000000000003</v>
       </c>
     </row>
-    <row r="690" spans="1:8">
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690">
         <v>42.9</v>
       </c>
@@ -15986,7 +16046,7 @@
         <v>6.8680000000000003</v>
       </c>
     </row>
-    <row r="691" spans="1:8">
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691">
         <v>50</v>
       </c>
@@ -16012,7 +16072,7 @@
         <v>6.8879999999999999</v>
       </c>
     </row>
-    <row r="692" spans="1:8">
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692">
         <v>57.2</v>
       </c>
@@ -16038,7 +16098,7 @@
         <v>6.9059999999999997</v>
       </c>
     </row>
-    <row r="693" spans="1:8">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693">
         <v>64.3</v>
       </c>
@@ -16064,7 +16124,7 @@
         <v>6.9189999999999996</v>
       </c>
     </row>
-    <row r="694" spans="1:8">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694">
         <v>71.5</v>
       </c>
@@ -16090,7 +16150,7 @@
         <v>6.9260000000000002</v>
       </c>
     </row>
-    <row r="695" spans="1:8">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695">
         <v>78.599999999999994</v>
       </c>
@@ -16116,7 +16176,7 @@
         <v>6.9249999999999998</v>
       </c>
     </row>
-    <row r="696" spans="1:8">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696">
         <v>85.8</v>
       </c>
@@ -16142,7 +16202,7 @@
         <v>6.9109999999999996</v>
       </c>
     </row>
-    <row r="697" spans="1:8">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697">
         <v>92.9</v>
       </c>
@@ -16168,7 +16228,7 @@
         <v>6.8819999999999997</v>
       </c>
     </row>
-    <row r="698" spans="1:8">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698">
         <v>100.1</v>
       </c>
@@ -16194,7 +16254,7 @@
         <v>6.8220000000000001</v>
       </c>
     </row>
-    <row r="699" spans="1:8">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699">
         <v>107.2</v>
       </c>
@@ -16220,7 +16280,7 @@
         <v>6.7290000000000001</v>
       </c>
     </row>
-    <row r="700" spans="1:8">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700">
         <v>114.3</v>
       </c>
@@ -16246,7 +16306,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="701" spans="1:8">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701">
         <v>121.5</v>
       </c>
@@ -16272,7 +16332,7 @@
         <v>6.431</v>
       </c>
     </row>
-    <row r="702" spans="1:8">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702">
         <v>128.6</v>
       </c>
@@ -16298,7 +16358,7 @@
         <v>6.202</v>
       </c>
     </row>
-    <row r="703" spans="1:8">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703">
         <v>135.80000000000001</v>
       </c>
@@ -16324,7 +16384,7 @@
         <v>5.8810000000000002</v>
       </c>
     </row>
-    <row r="704" spans="1:8">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704">
         <v>142.9</v>
       </c>
@@ -16350,7 +16410,7 @@
         <v>5.4370000000000003</v>
       </c>
     </row>
-    <row r="705" spans="1:8">
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705">
         <v>150.1</v>
       </c>
@@ -16376,7 +16436,7 @@
         <v>4.8620000000000001</v>
       </c>
     </row>
-    <row r="706" spans="1:8">
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706">
         <v>157.19999999999999</v>
       </c>
@@ -16402,7 +16462,7 @@
         <v>4.2969999999999997</v>
       </c>
     </row>
-    <row r="707" spans="1:8">
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707">
         <v>164.4</v>
       </c>
@@ -16428,7 +16488,7 @@
         <v>3.722</v>
       </c>
     </row>
-    <row r="708" spans="1:8">
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708">
         <v>171.5</v>
       </c>
@@ -16454,7 +16514,7 @@
         <v>3.1339999999999999</v>
       </c>
     </row>
-    <row r="709" spans="1:8">
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709">
         <v>178.7</v>
       </c>
@@ -16480,7 +16540,7 @@
         <v>2.536</v>
       </c>
     </row>
-    <row r="710" spans="1:8">
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710">
         <v>185.8</v>
       </c>
@@ -16506,7 +16566,7 @@
         <v>1.9239999999999999</v>
       </c>
     </row>
-    <row r="711" spans="1:8">
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711">
         <v>193</v>
       </c>
@@ -16532,7 +16592,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="712" spans="1:8">
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712">
         <v>200.1</v>
       </c>
@@ -16558,7 +16618,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="713" spans="1:8">
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713">
         <v>207.3</v>
       </c>
@@ -16584,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="717" spans="1:8">
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>30</v>
       </c>
@@ -16598,7 +16658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="719" spans="1:8">
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>26</v>
       </c>
@@ -16624,7 +16684,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="720" spans="1:8">
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -16644,7 +16704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="721" spans="1:8">
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721">
         <v>0</v>
       </c>
@@ -16670,7 +16730,7 @@
         <v>7.7229999999999999</v>
       </c>
     </row>
-    <row r="722" spans="1:8">
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722">
         <v>7.5</v>
       </c>
@@ -16696,7 +16756,7 @@
         <v>7.76</v>
       </c>
     </row>
-    <row r="723" spans="1:8">
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723">
         <v>15.1</v>
       </c>
@@ -16722,7 +16782,7 @@
         <v>7.798</v>
       </c>
     </row>
-    <row r="724" spans="1:8">
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724">
         <v>22.6</v>
       </c>
@@ -16748,7 +16808,7 @@
         <v>7.8390000000000004</v>
       </c>
     </row>
-    <row r="725" spans="1:8">
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725">
         <v>30.2</v>
       </c>
@@ -16774,7 +16834,7 @@
         <v>7.8769999999999998</v>
       </c>
     </row>
-    <row r="726" spans="1:8">
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726">
         <v>37.700000000000003</v>
       </c>
@@ -16800,7 +16860,7 @@
         <v>7.9119999999999999</v>
       </c>
     </row>
-    <row r="727" spans="1:8">
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727">
         <v>45.2</v>
       </c>
@@ -16826,7 +16886,7 @@
         <v>7.9450000000000003</v>
       </c>
     </row>
-    <row r="728" spans="1:8">
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728">
         <v>52.8</v>
       </c>
@@ -16852,7 +16912,7 @@
         <v>7.9859999999999998</v>
       </c>
     </row>
-    <row r="729" spans="1:8">
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729">
         <v>60.3</v>
       </c>
@@ -16878,7 +16938,7 @@
         <v>8.0079999999999991</v>
       </c>
     </row>
-    <row r="730" spans="1:8">
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730">
         <v>67.8</v>
       </c>
@@ -16904,7 +16964,7 @@
         <v>8.0180000000000007</v>
       </c>
     </row>
-    <row r="731" spans="1:8">
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731">
         <v>75.400000000000006</v>
       </c>
@@ -16930,7 +16990,7 @@
         <v>8.0150000000000006</v>
       </c>
     </row>
-    <row r="732" spans="1:8">
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732">
         <v>82.9</v>
       </c>
@@ -16956,7 +17016,7 @@
         <v>7.9950000000000001</v>
       </c>
     </row>
-    <row r="733" spans="1:8">
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733">
         <v>90.5</v>
       </c>
@@ -16982,7 +17042,7 @@
         <v>7.9610000000000003</v>
       </c>
     </row>
-    <row r="734" spans="1:8">
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734">
         <v>98</v>
       </c>
@@ -17008,7 +17068,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="735" spans="1:8">
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735">
         <v>105.5</v>
       </c>
@@ -17034,7 +17094,7 @@
         <v>7.8490000000000002</v>
       </c>
     </row>
-    <row r="736" spans="1:8">
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736">
         <v>113.1</v>
       </c>
@@ -17060,7 +17120,7 @@
         <v>7.7530000000000001</v>
       </c>
     </row>
-    <row r="737" spans="1:8">
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737">
         <v>120.6</v>
       </c>
@@ -17086,7 +17146,7 @@
         <v>7.5830000000000002</v>
       </c>
     </row>
-    <row r="738" spans="1:8">
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738">
         <v>128.1</v>
       </c>
@@ -17112,7 +17172,7 @@
         <v>7.3710000000000004</v>
       </c>
     </row>
-    <row r="739" spans="1:8">
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739">
         <v>135.69999999999999</v>
       </c>
@@ -17138,7 +17198,7 @@
         <v>7.0869999999999997</v>
       </c>
     </row>
-    <row r="740" spans="1:8">
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740">
         <v>143.19999999999999</v>
       </c>
@@ -17164,7 +17224,7 @@
         <v>6.774</v>
       </c>
     </row>
-    <row r="741" spans="1:8">
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741">
         <v>150.80000000000001</v>
       </c>
@@ -17190,7 +17250,7 @@
         <v>6.2610000000000001</v>
       </c>
     </row>
-    <row r="742" spans="1:8">
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742">
         <v>158.30000000000001</v>
       </c>
@@ -17216,7 +17276,7 @@
         <v>5.5750000000000002</v>
       </c>
     </row>
-    <row r="743" spans="1:8">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743">
         <v>165.8</v>
       </c>
@@ -17242,7 +17302,7 @@
         <v>4.9160000000000004</v>
       </c>
     </row>
-    <row r="744" spans="1:8">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744">
         <v>173.4</v>
       </c>
@@ -17268,7 +17328,7 @@
         <v>4.2549999999999999</v>
       </c>
     </row>
-    <row r="745" spans="1:8">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745">
         <v>180.9</v>
       </c>
@@ -17294,7 +17354,7 @@
         <v>3.5750000000000002</v>
       </c>
     </row>
-    <row r="746" spans="1:8">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746">
         <v>188.5</v>
       </c>
@@ -17320,7 +17380,7 @@
         <v>2.883</v>
       </c>
     </row>
-    <row r="747" spans="1:8">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747">
         <v>196</v>
       </c>
@@ -17346,7 +17406,7 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="748" spans="1:8">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748">
         <v>203.5</v>
       </c>
@@ -17372,7 +17432,7 @@
         <v>1.4450000000000001</v>
       </c>
     </row>
-    <row r="749" spans="1:8">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749">
         <v>211.1</v>
       </c>
@@ -17398,7 +17458,7 @@
         <v>0.67900000000000005</v>
       </c>
     </row>
-    <row r="750" spans="1:8">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750">
         <v>218.6</v>
       </c>
@@ -17424,7 +17484,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="754" spans="1:8">
+    <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>30</v>
       </c>
@@ -17438,7 +17498,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="756" spans="1:8">
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>26</v>
       </c>
@@ -17464,7 +17524,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="757" spans="1:8">
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>40</v>
       </c>
@@ -17484,7 +17544,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="758" spans="1:8">
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758">
         <v>0</v>
       </c>
@@ -17510,7 +17570,7 @@
         <v>9.9269999999999996</v>
       </c>
     </row>
-    <row r="759" spans="1:8">
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759">
         <v>8.3000000000000007</v>
       </c>
@@ -17536,7 +17596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:8">
+    <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760">
         <v>16.600000000000001</v>
       </c>
@@ -17562,7 +17622,7 @@
         <v>10.082000000000001</v>
       </c>
     </row>
-    <row r="761" spans="1:8">
+    <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761">
         <v>24.9</v>
       </c>
@@ -17588,7 +17648,7 @@
         <v>10.137</v>
       </c>
     </row>
-    <row r="762" spans="1:8">
+    <row r="762" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A762">
         <v>33.1</v>
       </c>
@@ -17614,7 +17674,7 @@
         <v>10.173</v>
       </c>
     </row>
-    <row r="763" spans="1:8">
+    <row r="763" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A763">
         <v>41.4</v>
       </c>
@@ -17640,7 +17700,7 @@
         <v>10.225</v>
       </c>
     </row>
-    <row r="764" spans="1:8">
+    <row r="764" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A764">
         <v>49.7</v>
       </c>
@@ -17666,7 +17726,7 @@
         <v>10.266999999999999</v>
       </c>
     </row>
-    <row r="765" spans="1:8">
+    <row r="765" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A765">
         <v>58</v>
       </c>
@@ -17692,7 +17752,7 @@
         <v>10.244999999999999</v>
       </c>
     </row>
-    <row r="766" spans="1:8">
+    <row r="766" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A766">
         <v>66.3</v>
       </c>
@@ -17718,7 +17778,7 @@
         <v>10.210000000000001</v>
       </c>
     </row>
-    <row r="767" spans="1:8">
+    <row r="767" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A767">
         <v>74.599999999999994</v>
       </c>
@@ -17744,7 +17804,7 @@
         <v>10.166</v>
       </c>
     </row>
-    <row r="768" spans="1:8">
+    <row r="768" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A768">
         <v>82.8</v>
       </c>
@@ -17770,7 +17830,7 @@
         <v>10.119</v>
       </c>
     </row>
-    <row r="769" spans="1:8">
+    <row r="769" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A769">
         <v>91.1</v>
       </c>
@@ -17796,7 +17856,7 @@
         <v>10.17</v>
       </c>
     </row>
-    <row r="770" spans="1:8">
+    <row r="770" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A770">
         <v>99.4</v>
       </c>
@@ -17822,7 +17882,7 @@
         <v>10.199</v>
       </c>
     </row>
-    <row r="771" spans="1:8">
+    <row r="771" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A771">
         <v>107.7</v>
       </c>
@@ -17848,7 +17908,7 @@
         <v>10.239000000000001</v>
       </c>
     </row>
-    <row r="772" spans="1:8">
+    <row r="772" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A772">
         <v>116</v>
       </c>
@@ -17874,7 +17934,7 @@
         <v>10.331</v>
       </c>
     </row>
-    <row r="773" spans="1:8">
+    <row r="773" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A773">
         <v>124.3</v>
       </c>
@@ -17900,7 +17960,7 @@
         <v>10.192</v>
       </c>
     </row>
-    <row r="774" spans="1:8">
+    <row r="774" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A774">
         <v>132.6</v>
       </c>
@@ -17926,7 +17986,7 @@
         <v>9.9450000000000003</v>
       </c>
     </row>
-    <row r="775" spans="1:8">
+    <row r="775" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A775">
         <v>140.80000000000001</v>
       </c>
@@ -17952,7 +18012,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="776" spans="1:8">
+    <row r="776" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A776">
         <v>149.1</v>
       </c>
@@ -17978,7 +18038,7 @@
         <v>9.3350000000000009</v>
       </c>
     </row>
-    <row r="777" spans="1:8">
+    <row r="777" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A777">
         <v>157.4</v>
       </c>
@@ -18004,7 +18064,7 @@
         <v>9.0060000000000002</v>
       </c>
     </row>
-    <row r="778" spans="1:8">
+    <row r="778" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A778">
         <v>165.7</v>
       </c>
@@ -18030,7 +18090,7 @@
         <v>8.69</v>
       </c>
     </row>
-    <row r="779" spans="1:8">
+    <row r="779" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A779">
         <v>174</v>
       </c>
@@ -18056,7 +18116,7 @@
         <v>8.0980000000000008</v>
       </c>
     </row>
-    <row r="780" spans="1:8">
+    <row r="780" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A780">
         <v>182.3</v>
       </c>
@@ -18082,7 +18142,7 @@
         <v>7.2510000000000003</v>
       </c>
     </row>
-    <row r="781" spans="1:8">
+    <row r="781" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A781">
         <v>190.6</v>
       </c>
@@ -18108,7 +18168,7 @@
         <v>6.3230000000000004</v>
       </c>
     </row>
-    <row r="782" spans="1:8">
+    <row r="782" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A782">
         <v>198.8</v>
       </c>
@@ -18134,7 +18194,7 @@
         <v>5.4039999999999999</v>
       </c>
     </row>
-    <row r="783" spans="1:8">
+    <row r="783" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A783">
         <v>207.1</v>
       </c>
@@ -18160,7 +18220,7 @@
         <v>4.4870000000000001</v>
       </c>
     </row>
-    <row r="784" spans="1:8">
+    <row r="784" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A784">
         <v>215.4</v>
       </c>
@@ -18186,35 +18246,33 @@
         <v>3.3620000000000001</v>
       </c>
     </row>
-    <row r="785" spans="1:8">
+    <row r="785" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A785">
         <v>223.7</v>
       </c>
-      <c r="B785" t="s">
-        <v>46</v>
-      </c>
-      <c r="C785" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="D785" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="E785" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="F785" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G785" t="e">
-        <f>-NaN</f>
-        <v>#NAME?</v>
-      </c>
-    </row>
-    <row r="786" spans="1:8">
+      <c r="B785">
+        <v>1.22</v>
+      </c>
+      <c r="C785">
+        <v>0</v>
+      </c>
+      <c r="D785">
+        <v>0</v>
+      </c>
+      <c r="E785">
+        <v>0</v>
+      </c>
+      <c r="F785">
+        <v>0</v>
+      </c>
+      <c r="G785">
+        <v>0</v>
+      </c>
+      <c r="H785">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="786" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A786">
         <v>232</v>
       </c>
@@ -18240,7 +18298,7 @@
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="787" spans="1:8">
+    <row r="787" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A787">
         <v>240.3</v>
       </c>
@@ -18266,7 +18324,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="791" spans="1:8">
+    <row r="791" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>30</v>
       </c>
@@ -18280,7 +18338,7 @@
         <v>24000</v>
       </c>
     </row>
-    <row r="793" spans="1:8">
+    <row r="793" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>26</v>
       </c>
@@ -18306,7 +18364,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="794" spans="1:8">
+    <row r="794" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>40</v>
       </c>
@@ -18326,7 +18384,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="795" spans="1:8">
+    <row r="795" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A795">
         <v>0</v>
       </c>
@@ -18352,7 +18410,7 @@
         <v>11.686999999999999</v>
       </c>
     </row>
-    <row r="796" spans="1:8">
+    <row r="796" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A796">
         <v>9.1999999999999993</v>
       </c>
@@ -18378,7 +18436,7 @@
         <v>11.782</v>
       </c>
     </row>
-    <row r="797" spans="1:8">
+    <row r="797" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A797">
         <v>18.5</v>
       </c>
@@ -18404,7 +18462,7 @@
         <v>11.888</v>
       </c>
     </row>
-    <row r="798" spans="1:8">
+    <row r="798" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A798">
         <v>27.7</v>
       </c>
@@ -18430,7 +18488,7 @@
         <v>11.997</v>
       </c>
     </row>
-    <row r="799" spans="1:8">
+    <row r="799" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A799">
         <v>37</v>
       </c>
@@ -18456,7 +18514,7 @@
         <v>12.125</v>
       </c>
     </row>
-    <row r="800" spans="1:8">
+    <row r="800" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A800">
         <v>46.2</v>
       </c>
@@ -18482,7 +18540,7 @@
         <v>12.221</v>
       </c>
     </row>
-    <row r="801" spans="1:8">
+    <row r="801" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A801">
         <v>55.5</v>
       </c>
@@ -18508,7 +18566,7 @@
         <v>12.298999999999999</v>
       </c>
     </row>
-    <row r="802" spans="1:8">
+    <row r="802" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A802">
         <v>64.7</v>
       </c>
@@ -18534,7 +18592,7 @@
         <v>12.353999999999999</v>
       </c>
     </row>
-    <row r="803" spans="1:8">
+    <row r="803" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A803">
         <v>74</v>
       </c>
@@ -18560,7 +18618,7 @@
         <v>12.452</v>
       </c>
     </row>
-    <row r="804" spans="1:8">
+    <row r="804" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A804">
         <v>83.2</v>
       </c>
@@ -18586,7 +18644,7 @@
         <v>12.507999999999999</v>
       </c>
     </row>
-    <row r="805" spans="1:8">
+    <row r="805" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A805">
         <v>92.5</v>
       </c>
@@ -18612,7 +18670,7 @@
         <v>12.768000000000001</v>
       </c>
     </row>
-    <row r="806" spans="1:8">
+    <row r="806" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A806">
         <v>101.7</v>
       </c>
@@ -18638,7 +18696,7 @@
         <v>13.115</v>
       </c>
     </row>
-    <row r="807" spans="1:8">
+    <row r="807" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A807">
         <v>110.9</v>
       </c>
@@ -18664,7 +18722,7 @@
         <v>13.180999999999999</v>
       </c>
     </row>
-    <row r="808" spans="1:8">
+    <row r="808" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A808">
         <v>120.2</v>
       </c>
@@ -18690,7 +18748,7 @@
         <v>13.004</v>
       </c>
     </row>
-    <row r="809" spans="1:8">
+    <row r="809" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A809">
         <v>129.4</v>
       </c>
@@ -18716,7 +18774,7 @@
         <v>12.651999999999999</v>
       </c>
     </row>
-    <row r="810" spans="1:8">
+    <row r="810" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A810">
         <v>138.69999999999999</v>
       </c>
@@ -18742,7 +18800,7 @@
         <v>12.129</v>
       </c>
     </row>
-    <row r="811" spans="1:8">
+    <row r="811" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A811">
         <v>147.9</v>
       </c>
@@ -18768,7 +18826,7 @@
         <v>11.727</v>
       </c>
     </row>
-    <row r="812" spans="1:8">
+    <row r="812" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A812">
         <v>157.19999999999999</v>
       </c>
@@ -18794,7 +18852,7 @@
         <v>11.281000000000001</v>
       </c>
     </row>
-    <row r="813" spans="1:8">
+    <row r="813" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A813">
         <v>166.4</v>
       </c>
@@ -18820,7 +18878,7 @@
         <v>10.932</v>
       </c>
     </row>
-    <row r="814" spans="1:8">
+    <row r="814" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A814">
         <v>175.7</v>
       </c>
@@ -18846,7 +18904,7 @@
         <v>10.477</v>
       </c>
     </row>
-    <row r="815" spans="1:8">
+    <row r="815" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A815">
         <v>184.9</v>
       </c>
@@ -18872,7 +18930,7 @@
         <v>9.7629999999999999</v>
       </c>
     </row>
-    <row r="816" spans="1:8">
+    <row r="816" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A816">
         <v>194.1</v>
       </c>
@@ -18898,7 +18956,7 @@
         <v>9.2240000000000002</v>
       </c>
     </row>
-    <row r="817" spans="1:8">
+    <row r="817" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A817">
         <v>203.4</v>
       </c>
@@ -18924,7 +18982,7 @@
         <v>8.2390000000000008</v>
       </c>
     </row>
-    <row r="818" spans="1:8">
+    <row r="818" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A818">
         <v>212.6</v>
       </c>
@@ -18950,7 +19008,7 @@
         <v>7.2030000000000003</v>
       </c>
     </row>
-    <row r="819" spans="1:8">
+    <row r="819" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A819">
         <v>221.9</v>
       </c>
@@ -18976,7 +19034,7 @@
         <v>6.21</v>
       </c>
     </row>
-    <row r="820" spans="1:8">
+    <row r="820" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A820">
         <v>231.1</v>
       </c>
@@ -19002,7 +19060,7 @@
         <v>4.7830000000000004</v>
       </c>
     </row>
-    <row r="821" spans="1:8">
+    <row r="821" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A821">
         <v>240.4</v>
       </c>
@@ -19028,7 +19086,7 @@
         <v>2.996</v>
       </c>
     </row>
-    <row r="822" spans="1:8">
+    <row r="822" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A822">
         <v>249.6</v>
       </c>
@@ -19054,7 +19112,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="823" spans="1:8">
+    <row r="823" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A823">
         <v>258.89999999999998</v>
       </c>
@@ -19080,7 +19138,7 @@
         <v>0.88500000000000001</v>
       </c>
     </row>
-    <row r="824" spans="1:8">
+    <row r="824" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A824">
         <v>268.10000000000002</v>
       </c>
@@ -19113,24 +19171,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
